--- a/Virtual AGV/Virtual-AGV-Python-Flask-App/grid.xlsx
+++ b/Virtual AGV/Virtual-AGV-Python-Flask-App/grid.xlsx
@@ -448,5124 +448,5124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(8,1)</t>
+          <t>(16,3)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(9,1),(8,2),(8,0)</t>
+          <t>(17,3),(16,4)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(9,1)</t>
+          <t>(17,3)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(8,1),(10,1),(9,2),(9,1),(9,0)</t>
+          <t>(16,3),(18,3),(17,4)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(10,1)</t>
+          <t>(18,3)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(9,1),(10,0),(11,1)</t>
+          <t>(17,3),(19,3),(18,4)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(12,1)</t>
+          <t>(19,3)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(13,1),(12,2),(11,1),(12,0)</t>
+          <t>(18,3),(20,3),(19,4)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(13,1)</t>
+          <t>(20,3)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(12,1),(13,0),(14,1)</t>
+          <t>(19,3),(21,3),(20,4)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(15,1)</t>
+          <t>(21,3)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(16,1),(15,2),(15,0),(14,1)</t>
+          <t>(20,3),(22,3),(21,4)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(16,1)</t>
+          <t>(22,3)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(15,1),(17,1),(16,2),(16,0)</t>
+          <t>(21,3),(23,3),(22,4)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(17,1)</t>
+          <t>(23,3)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(16,1),(17,0),(18,1)</t>
+          <t>(22,3),(24,3),(23,4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(19,1)</t>
+          <t>(24,3)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(20,1),(19,2),(19,1),(19,0),(18,1)</t>
+          <t>(23,3),(25,3),(24,4)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(20,1)</t>
+          <t>(25,3)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(19,1),(20,0),(21,1)</t>
+          <t>(24,3),(26,3),(25,4)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(8,2)</t>
+          <t>(26,3)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(9,2),(8,1),(8,3)</t>
+          <t>(25,3),(27,3),(26,4)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(9,2)</t>
+          <t>(27,3)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(8,2),(9,1),(9,3)</t>
+          <t>(26,3),(28,3),(27,4)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(12,2)</t>
+          <t>(28,3)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(12,1),(12,3)</t>
+          <t>(27,3),(29,3),(28,4)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(15,2)</t>
+          <t>(29,3)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(16,2),(15,1),(15,3)</t>
+          <t>(28,3),(30,3),(29,4)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(16,2)</t>
+          <t>(30,3)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(15,2),(16,1),(16,3)</t>
+          <t>(29,3),(31,3),(30,4)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(19,2)</t>
+          <t>(31,3)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(19,1),(19,3)</t>
+          <t>(30,3),(31,4)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(9,3)</t>
+          <t>(31,4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(9,2),(9,4),(8,3)</t>
+          <t>(31,5),(31,3),(30,4)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(12,3)</t>
+          <t>(31,5)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(12,2),(12,4)</t>
+          <t>(31,6),(31,4),(30,5)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(16,3)</t>
+          <t>(31,6)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(16,2),(16,4),(15,3)</t>
+          <t>(31,7),(31,5),(30,6)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(19,3)</t>
+          <t>(31,7)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(19,2),(19,4)</t>
+          <t>(31,8),(31,6),(30,7)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(9,4)</t>
+          <t>(31,8)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(9,3),(9,5),(8,4)</t>
+          <t>(31,9),(31,7),(30,8)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(12,4)</t>
+          <t>(31,9)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(12,3),(12,5)</t>
+          <t>(31,10),(31,8),(30,9),(32,9)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(16,4)</t>
+          <t>(31,10)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(16,3),(16,5),(15,4)</t>
+          <t>(31,11),(31,9),(30,10),(32,10)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(19,4)</t>
+          <t>(31,11)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(19,3),(19,5)</t>
+          <t>(31,12),(31,10),(30,11),(32,11)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(9,5)</t>
+          <t>(31,12)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(9,4),(9,6),(8,5)</t>
+          <t>(31,13),(31,11),(30,12),(32,12)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(12,5)</t>
+          <t>(31,13)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(12,4),(12,6)</t>
+          <t>(31,12),(30,13),(31,14)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(16,5)</t>
+          <t>(30,13)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(16,4),(16,6),(15,5)</t>
+          <t>(31,13),(30,12),(29,13),(30,14)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(19,5)</t>
+          <t>(30,12)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(19,4),(19,6)</t>
+          <t>(30,13),(30,11),(31,12)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(9,6)</t>
+          <t>(30,11)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(9,5),(9,7),(8,6)</t>
+          <t>(30,12),(30,10),(31,11)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(12,6)</t>
+          <t>(30,10)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(12,5),(12,7)</t>
+          <t>(30,11),(30,9),(31,10)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(16,6)</t>
+          <t>(30,9)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(16,5),(16,7),(15,6)</t>
+          <t>(30,10),(30,8),(31,9)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(19,6)</t>
+          <t>(30,8)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(19,5),(19,7)</t>
+          <t>(30,9),(30,7),(31,8)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(25,6)</t>
+          <t>(30,7)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(26,6),(25,6),(24,6)</t>
+          <t>(30,8),(30,6),(31,7)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(9,7)</t>
+          <t>(30,6)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(9,6),(9,8),(8,7)</t>
+          <t>(30,7),(30,5),(31,6)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(12,7)</t>
+          <t>(30,5)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(12,6),(12,8)</t>
+          <t>(30,6),(30,4),(31,5)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(16,7)</t>
+          <t>(30,4)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(16,6),(16,8),(15,7)</t>
+          <t>(30,5),(30,3),(31,4),(29,4)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(19,7)</t>
+          <t>(29,13)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(19,6),(19,8)</t>
+          <t>(28,13),(30,13),(29,14)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(9,8)</t>
+          <t>(28,13)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(9,7),(9,9),(8,8)</t>
+          <t>(27,13),(29,13),(28,14)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(12,8)</t>
+          <t>(27,13)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(12,7),(12,9)</t>
+          <t>(26,13),(28,13),(27,14),(27,12)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(16,8)</t>
+          <t>(26,13)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(16,7),(16,9),(15,8)</t>
+          <t>(25,13),(27,13),(26,14)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(19,8)</t>
+          <t>(25,13)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(19,7),(19,9)</t>
+          <t>(24,13),(26,13),(25,14)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(9,9)</t>
+          <t>(24,12)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>(9,8),(9,10),(8,9)</t>
+          <t>(23,12),(24,13),(24,11)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(12,9)</t>
+          <t>(24,13)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(12,8),(12,10)</t>
+          <t>(23,13),(25,13),(24,12),(24,14)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(16,9)</t>
+          <t>(23,13)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(16,8),(16,10),(15,9)</t>
+          <t>(22,13),(24,13),(23,12),(23,14)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(19,9)</t>
+          <t>(23,12)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(19,8),(19,10)</t>
+          <t>(24,12),(23,13),(23,11)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(8,10)</t>
+          <t>(22,13)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(9,10),(8,11),(8,9)</t>
+          <t>(21,13),(23,13),(22,14)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(9,10)</t>
+          <t>(21,13)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(8,10),(10,10),(9,9),(9,11)</t>
+          <t>(20,13),(22,13),(21,14)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>(10,10)</t>
+          <t>(20,13)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(9,10),(11,10),(10,11)</t>
+          <t>(19,13),(21,13),(20,14),(20,12)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(11,10)</t>
+          <t>(19,13)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(10,10),(12,10),(11,11)</t>
+          <t>(18,13),(20,13),(19,14)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>(12,10)</t>
+          <t>(18,13)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(11,10),(13,10),(12,9),(12,11)</t>
+          <t>(17,13),(19,13),(18,14)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>(13,10)</t>
+          <t>(17,13)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(12,10),(14,10),(13,11)</t>
+          <t>(16,13),(18,13),(17,12),(17,14)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>(14,10)</t>
+          <t>(17,12)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(13,10),(15,10),(14,11)</t>
+          <t>(16,12),(17,13),(17,11)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(15,10)</t>
+          <t>(16,13)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(14,10),(16,10),(15,11),(15,9)</t>
+          <t>(17,13),(16,12),(16,14)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>(16,10)</t>
+          <t>(16,12)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(15,10),(17,10),(16,9),(16,11)</t>
+          <t>(17,12),(16,13),(16,11)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(17,10)</t>
+          <t>(16,11)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(16,10),(18,10),(17,11)</t>
+          <t>(16,12),(17,11),(16,10)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>(18,10)</t>
+          <t>(17,11)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(17,10),(19,10),(18,11)</t>
+          <t>(16,11),(17,10),(17,12)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>(19,10)</t>
+          <t>(17,10)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(18,10),(20,10),(19,9),(19,11)</t>
+          <t>(17,11),(16,10),(17,9)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>(20,10)</t>
+          <t>(16,10)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(19,10),(20,11),(21,10)</t>
+          <t>(17,10),(16,11),(16,9)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(8,11)</t>
+          <t>(16,9)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(9,11),(8,10)</t>
+          <t>(16,10),(17,9),(16,8)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>(9,11)</t>
+          <t>(17,9)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(8,11),(10,11),(9,10)</t>
+          <t>(16,9),(17,10),(17,8)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(10,11)</t>
+          <t>(17,8)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(9,11),(11,11),(10,10)</t>
+          <t>(17,7),(17,9),(16,8)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(11,11)</t>
+          <t>(16,8)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(10,11),(12,11),(11,10)</t>
+          <t>(16,9),(16,7),(17,8)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>(12,11)</t>
+          <t>(16,7)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(11,11),(13,11),(12,10),(12,12)</t>
+          <t>(16,8),(16,6),(17,7)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(13,11)</t>
+          <t>(17,7)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(12,11),(14,11),(13,10)</t>
+          <t>(17,6),(17,8),(16,7)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>(14,11)</t>
+          <t>(16,6)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(13,11),(15,11),(14,10)</t>
+          <t>(16,7),(16,5),(17,6)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>(15,11)</t>
+          <t>(17,6)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(14,11),(16,11),(15,10),(15,12)</t>
+          <t>(17,5),(17,7),(16,6)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>(16,11)</t>
+          <t>(16,5)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(15,11),(17,11),(16,10),(16,12)</t>
+          <t>(16,6),(16,4),(17,5)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>(17,11)</t>
+          <t>(17,5)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>(16,11),(18,11),(17,10)</t>
+          <t>(17,4),(17,6),(16,5)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>(18,11)</t>
+          <t>(17,4)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(17,11),(19,11),(18,10)</t>
+          <t>(17,3),(17,5),(16,4),(18,4)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>(19,11)</t>
+          <t>(16,4)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>(18,11),(20,11),(19,10),(19,12)</t>
+          <t>(16,5),(16,3),(17,4)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>(20,11)</t>
+          <t>(23,11)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>(19,11),(20,10),(21,11)</t>
+          <t>(23,12),(23,10),(24,11)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>(1,12)</t>
+          <t>(24,11)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(2,12),(1,13)</t>
+          <t>(24,10),(24,12),(23,11)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>(2,12)</t>
+          <t>(23,10)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(1,12),(3,12),(2,13)</t>
+          <t>(23,11),(23,9),(24,10)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>(3,12)</t>
+          <t>(24,10)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(2,12),(4,12),(3,13)</t>
+          <t>(24,9),(24,11),(23,10)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>(4,12)</t>
+          <t>(23,9)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(3,12),(5,12),(4,13)</t>
+          <t>(23,10),(23,8),(24,9)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>(5,12)</t>
+          <t>(24,9)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(4,12),(6,12),(5,13)</t>
+          <t>(24,8),(24,10),(23,9)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>(6,12)</t>
+          <t>(23,8)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(5,12),(7,12),(6,13)</t>
+          <t>(23,9),(23,7),(24,8)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>(7,12)</t>
+          <t>(24,8)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(6,12),(8,12),(7,13)</t>
+          <t>(24,7),(24,9),(23,8)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>(8,12)</t>
+          <t>(23,7)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(7,12),(8,13),(9,12)</t>
+          <t>(23,8),(23,6),(24,7)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>(10,12)</t>
+          <t>(24,7)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(11,12),(10,13),(9,12)</t>
+          <t>(24,6),(24,8),(23,7)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>(11,12)</t>
+          <t>(23,6)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(10,12),(12,12),(11,13)</t>
+          <t>(23,7),(23,5),(24,6)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>(12,12)</t>
+          <t>(24,6)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(11,12),(12,11),(12,13),(13,12)</t>
+          <t>(24,5),(24,7),(23,6)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>(14,12)</t>
+          <t>(23,5)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(15,12),(14,13),(13,12)</t>
+          <t>(23,6),(23,4),(24,5)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>(15,12)</t>
+          <t>(24,5)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(14,12),(16,12),(15,13),(15,11)</t>
+          <t>(24,4),(24,6),(23,5)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>(16,12)</t>
+          <t>(24,4)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(15,12),(17,12),(16,11),(16,13)</t>
+          <t>(24,3),(24,5),(23,4),(25,4)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>(17,12)</t>
+          <t>(23,4)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(16,12),(18,12),(17,13)</t>
+          <t>(23,5),(23,3),(24,4),(22,4)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>(18,12)</t>
+          <t>(16,14)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(17,12),(19,12),(18,13)</t>
+          <t>(16,13),(17,14)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>(19,12)</t>
+          <t>(17,14)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>(18,12),(20,12),(19,13),(19,11)</t>
+          <t>(16,14),(18,14),(17,13)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>(20,12)</t>
+          <t>(18,14)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>(19,12),(21,12),(20,13)</t>
+          <t>(17,14),(19,14),(18,13)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>(21,12)</t>
+          <t>(19,14)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>(20,12),(22,12),(21,13)</t>
+          <t>(18,14),(20,14),(19,13)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>(22,12)</t>
+          <t>(20,14)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>(21,12),(23,12),(22,13)</t>
+          <t>(19,14),(21,14),(20,13),(20,15)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>(23,12)</t>
+          <t>(21,14)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>(22,12),(24,12),(23,13)</t>
+          <t>(20,14),(22,14),(21,13)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>(24,12)</t>
+          <t>(22,14)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>(23,12),(25,12),(24,13)</t>
+          <t>(21,14),(23,14),(22,13)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>(25,12)</t>
+          <t>(23,14)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>(24,12),(26,12),(25,13)</t>
+          <t>(23,14),(22,14),(24,14),(23,13),(23,15)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>(1,13)</t>
+          <t>(24,14)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(2,13),(1,12),(1,14)</t>
+          <t>(24,14),(23,14),(24,13),(25,14),(24,15)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>(2,13)</t>
+          <t>(25,14)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>(1,13),(3,13),(2,12),(2,14)</t>
+          <t>(26,14),(25,13),(24,14)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>(3,13)</t>
+          <t>(26,14)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(2,13),(4,13),(3,12)</t>
+          <t>(25,14),(26,13),(27,14)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>(4,13)</t>
+          <t>(27,14)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>(3,13),(5,13),(4,12)</t>
+          <t>(27,14),(26,14),(28,14),(27,13),(27,15)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>(5,13)</t>
+          <t>(28,14)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>(4,13),(6,13),(5,12)</t>
+          <t>(29,14),(27,14),(28,13)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>(6,13)</t>
+          <t>(29,14)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>(5,13),(7,13),(6,12)</t>
+          <t>(28,14),(30,14),(29,13)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>(7,13)</t>
+          <t>(30,14)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>(6,13),(8,13),(7,12)</t>
+          <t>(29,14),(31,14),(30,13)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>(8,13)</t>
+          <t>(31,14)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>(7,13),(9,13),(8,12)</t>
+          <t>(30,14),(31,13)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>(9,13)</t>
+          <t>(18,4)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(8,13),(10,13)</t>
+          <t>(17,4),(19,4),(18,3)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>(10,13)</t>
+          <t>(19,4)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>(9,13),(11,13),(10,12)</t>
+          <t>(18,4),(20,4),(19,3)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>(11,13)</t>
+          <t>(20,4)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>(10,13),(12,13),(11,12)</t>
+          <t>(19,4),(21,4),(20,3),(20,5)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>(12,13)</t>
+          <t>(21,4)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(11,13),(13,13),(12,12)</t>
+          <t>(20,4),(22,4),(21,3)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>(13,13)</t>
+          <t>(22,4)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>(12,13),(14,13)</t>
+          <t>(21,4),(23,4),(22,3)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>(14,13)</t>
+          <t>(25,4)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(13,13),(15,13),(14,12)</t>
+          <t>(24,4),(26,4),(25,3)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>(15,13)</t>
+          <t>(26,4)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>(14,13),(16,13),(15,12),(15,14)</t>
+          <t>(25,4),(27,4),(26,3)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>(16,13)</t>
+          <t>(27,4)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(15,13),(17,13),(16,12),(16,14)</t>
+          <t>(26,4),(28,4),(27,3),(27,5)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>(17,13)</t>
+          <t>(28,4)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>(16,13),(18,13),(17,12)</t>
+          <t>(27,4),(29,4),(28,3)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>(18,13)</t>
+          <t>(29,4)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>(17,13),(19,13),(18,12)</t>
+          <t>(28,4),(30,4),(29,3)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>(19,13)</t>
+          <t>(20,12)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>(18,13),(20,13),(19,12)</t>
+          <t>(20,11),(20,13)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>(20,13)</t>
+          <t>(20,11)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(19,13),(21,13),(20,12)</t>
+          <t>(20,10),(20,12)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>(21,13)</t>
+          <t>(20,10)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>(20,13),(22,13),(21,12)</t>
+          <t>(20,9),(20,11)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>(22,13)</t>
+          <t>(20,9)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>(21,13),(23,13),(22,12)</t>
+          <t>(20,8),(20,10)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>(23,13)</t>
+          <t>(20,8)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>(22,13),(24,13),(23,12)</t>
+          <t>(20,7),(20,9)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>(24,13)</t>
+          <t>(20,7)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>(23,13),(24,12),(25,13)</t>
+          <t>(20,6),(20,8)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>(1,14)</t>
+          <t>(20,6)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>(2,14),(1,13),(1,15)</t>
+          <t>(20,5),(20,7)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>(2,14)</t>
+          <t>(20,5)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>(1,14),(2,13),(2,15)</t>
+          <t>(20,4),(20,6)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>(1,15)</t>
+          <t>(27,12)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>(2,15),(1,14),(1,16)</t>
+          <t>(27,13),(27,11)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(2,15)</t>
+          <t>(27,11)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>(1,15),(2,14),(2,16)</t>
+          <t>(27,12),(27,10)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>(1,16)</t>
+          <t>(27,10)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>(2,16),(1,15),(1,17)</t>
+          <t>(27,11),(27,9)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>(2,16)</t>
+          <t>(27,9)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>(1,16),(3,16),(2,15),(2,17)</t>
+          <t>(27,10),(27,8)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>(3,16)</t>
+          <t>(27,8)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>(2,16),(4,16)</t>
+          <t>(27,9),(27,7)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>(4,16)</t>
+          <t>(27,7)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>(3,16),(5,16)</t>
+          <t>(27,8),(27,6)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>(5,16)</t>
+          <t>(27,6)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>(4,16),(6,16)</t>
+          <t>(27,7),(27,5)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>(6,16)</t>
+          <t>(27,5)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>(5,16),(7,16)</t>
+          <t>(27,6),(27,4)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>(7,16)</t>
+          <t>(20,15)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>(6,16),(8,16)</t>
+          <t>(20,14),(20,16),(19,15),(21,15)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>(8,16)</t>
+          <t>(20,16)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(7,16),(9,16)</t>
+          <t>(20,15),(20,16),(19,16),(21,16)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>(9,16)</t>
+          <t>(27,16)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>(8,16),(10,16)</t>
+          <t>(27,15),(26,16),(28,16)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>(10,16)</t>
+          <t>(27,15)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>(9,16),(11,16)</t>
+          <t>(27,16),(27,14),(26,15),(28,15)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>(11,16)</t>
+          <t>(24,15)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(10,16),(12,16)</t>
+          <t>(24,16),(23,15),(24,14),(25,15)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>(12,16)</t>
+          <t>(23,15)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>(11,16),(13,16)</t>
+          <t>(23,14),(23,16),(24,15),(22,15)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>(13,16)</t>
+          <t>(23,16)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>(12,16),(14,16)</t>
+          <t>(23,15),(23,17),(24,16),(22,16),(23,16)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>(14,16)</t>
+          <t>(24,16)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>(13,16),(15,16)</t>
+          <t>(24,17),(24,16),(24,15),(23,16),(25,16)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>(15,16)</t>
+          <t>(24,17)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>(14,16),(16,16),(15,17),(15,15)</t>
+          <t>(24,18),(24,16),(23,17)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>(16,16)</t>
+          <t>(23,17)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>(15,16),(17,16),(16,17),(16,15)</t>
+          <t>(23,16),(23,18),(24,17)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>(17,16)</t>
+          <t>(23,18)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(16,16),(18,16)</t>
+          <t>(23,17),(23,19),(24,18)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>(18,16)</t>
+          <t>(24,18)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(17,16),(19,16)</t>
+          <t>(24,19),(24,17),(23,18)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>(19,16)</t>
+          <t>(23,19)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>(18,16),(20,16)</t>
+          <t>(23,18),(23,20),(24,19),(22,19)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>(20,16)</t>
+          <t>(23,20)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>(19,16),(21,16)</t>
+          <t>(23,19),(23,21),(24,20)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>(21,16)</t>
+          <t>(23,21)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>(20,16),(22,16)</t>
+          <t>(23,20),(23,22),(24,21)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>(22,16)</t>
+          <t>(23,22)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(21,16),(23,16)</t>
+          <t>(23,21),(23,23),(24,22),(22,22)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>(23,16)</t>
+          <t>(23,23)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(22,16),(24,16)</t>
+          <t>(23,22),(23,24),(24,23)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>(24,16)</t>
+          <t>(23,24)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>(23,16),(25,16)</t>
+          <t>(23,23),(23,25),(24,24)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>(1,17)</t>
+          <t>(23,25)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>(2,17),(1,16),(1,18)</t>
+          <t>(23,24),(23,26),(24,25),(22,25)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>(2,17)</t>
+          <t>(23,26)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>(1,17),(2,16),(2,18)</t>
+          <t>(23,25),(23,27),(24,26)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>(1,18)</t>
+          <t>(23,27)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>(2,18),(1,17),(1,19)</t>
+          <t>(23,26),(23,28),(24,27)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>(2,18)</t>
+          <t>(23,28)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(1,18),(2,17),(2,19)</t>
+          <t>(23,27),(23,29),(24,28),(22,28)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>(1,19)</t>
+          <t>(23,29)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>(2,19),(1,18),(1,20)</t>
+          <t>(24,29),(23,28),(22,29)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>(2,19)</t>
+          <t>(24,29)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>(1,19),(3,19),(2,18),(2,20)</t>
+          <t>(23,29),(24,28),(25,29)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>(3,19)</t>
+          <t>(24,28)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>(2,19),(4,19)</t>
+          <t>(24,29),(24,27),(23,28),(25,28)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>(4,19)</t>
+          <t>(24,27)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>(3,19),(5,19)</t>
+          <t>(24,28),(24,26),(23,27)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>(5,19)</t>
+          <t>(24,26)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(4,19),(6,19)</t>
+          <t>(24,27),(24,25),(23,26)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>(6,19)</t>
+          <t>(24,25)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>(5,19),(7,19)</t>
+          <t>(24,26),(24,24),(23,25),(25,25)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>(7,19)</t>
+          <t>(24,24)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>(6,19),(8,19)</t>
+          <t>(24,25),(24,23),(23,24)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>(8,19)</t>
+          <t>(24,23)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>(7,19),(9,19)</t>
+          <t>(24,24),(24,22),(23,23)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>(9,19)</t>
+          <t>(24,22)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>(8,19),(10,19)</t>
+          <t>(24,23),(24,21),(23,22),(25,22)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>(10,19)</t>
+          <t>(24,21)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>(9,19),(11,19)</t>
+          <t>(24,22),(24,20),(23,21)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>(11,19)</t>
+          <t>(24,20)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>(10,19),(12,19)</t>
+          <t>(24,21),(24,19),(23,20)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>(12,19)</t>
+          <t>(24,19)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>(11,19),(13,19)</t>
+          <t>(24,20),(24,18),(23,19),(25,19),(24,19)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>(13,19)</t>
+          <t>(38,29)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>(12,19),(14,19)</t>
+          <t>(37,29),(38,28)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>(14,19)</t>
+          <t>(37,29)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>(13,19),(15,19)</t>
+          <t>(36,29),(38,29),(37,28)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>(15,19)</t>
+          <t>(36,29)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>(14,19),(16,19),(15,20),(15,18)</t>
+          <t>(35,29),(37,29),(36,28)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>(16,19)</t>
+          <t>(35,29)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>(15,19),(17,19),(16,20),(16,18)</t>
+          <t>(34,29),(36,29),(35,28)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>(17,19)</t>
+          <t>(34,29)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>(16,19),(18,19)</t>
+          <t>(33,29),(35,29),(34,28)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>(18,19)</t>
+          <t>(33,29)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>(17,19),(19,19)</t>
+          <t>(32,29),(34,29),(33,28)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>(19,19)</t>
+          <t>(32,29)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>(18,19),(20,19)</t>
+          <t>(31,29),(33,29),(32,28)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>(20,19)</t>
+          <t>(31,29)</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>(19,19),(21,19)</t>
+          <t>(30,29),(32,29),(31,28)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>(21,19)</t>
+          <t>(30,29)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>(20,19),(22,19)</t>
+          <t>(31,29),(30,28),(29,29)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>(22,19)</t>
+          <t>(29,29)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>(21,19),(23,19)</t>
+          <t>(28,29),(29,29),(29,28),(30,29)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>(23,19)</t>
+          <t>(28,29)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>(22,19),(24,19)</t>
+          <t>(27,29),(29,29),(28,28)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>(1,20)</t>
+          <t>(27,29)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>(2,20),(1,19),(1,21)</t>
+          <t>(26,29),(28,29),(27,28)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>(2,20)</t>
+          <t>(26,29)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>(1,20),(2,19),(2,21)</t>
+          <t>(25,29),(27,29),(26,28)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>(1,21)</t>
+          <t>(25,29)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>(2,21),(1,20),(1,22)</t>
+          <t>(24,29),(26,29),(25,28)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>(2,21)</t>
+          <t>(22,29)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>(1,21),(2,20),(2,22)</t>
+          <t>(21,29),(23,29),(22,28)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>(1,22)</t>
+          <t>(9,29)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>(2,22),(1,21),(1,23)</t>
+          <t>(9,28),(10,29)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>(2,22)</t>
+          <t>(10,29)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>(1,22),(3,22),(2,21),(2,23)</t>
+          <t>(9,29),(11,29),(10,28)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>(3,22)</t>
+          <t>(11,29)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>(2,22),(4,22)</t>
+          <t>(10,29),(12,29),(11,28)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>(4,22)</t>
+          <t>(12,29)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>(3,22),(5,22)</t>
+          <t>(11,29),(13,29),(12,28)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>(5,22)</t>
+          <t>(13,29)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>(4,22),(6,22)</t>
+          <t>(12,29),(14,29),(13,28)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>(6,22)</t>
+          <t>(14,29)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>(5,22),(7,22)</t>
+          <t>(13,29),(15,29),(14,28)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>(7,22)</t>
+          <t>(15,29)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>(6,22),(8,22)</t>
+          <t>(14,29),(16,29),(15,28)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>(8,22)</t>
+          <t>(16,29)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>(7,22),(9,22)</t>
+          <t>(15,29),(17,29),(16,28)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>(9,22)</t>
+          <t>(17,29)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>(8,22),(10,22)</t>
+          <t>(16,29),(18,29),(17,28)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>(10,22)</t>
+          <t>(18,29)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>(9,22),(11,22)</t>
+          <t>(17,29),(19,29),(18,28)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>(11,22)</t>
+          <t>(19,29)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>(10,22),(12,22)</t>
+          <t>(18,29),(20,29),(19,28)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>(12,22)</t>
+          <t>(20,29)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>(11,22),(13,22)</t>
+          <t>(19,29),(21,29),(20,28)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>(13,22)</t>
+          <t>(21,29)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>(12,22),(14,22)</t>
+          <t>(20,29),(22,29),(21,28)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>(14,22)</t>
+          <t>(9,28)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>(13,22),(15,22)</t>
+          <t>(9,29),(10,28),(9,27)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>(15,22)</t>
+          <t>(10,28)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>(14,22),(16,22),(15,23),(15,21)</t>
+          <t>(11,28),(10,28),(9,28),(10,29),(10,27)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>(16,22)</t>
+          <t>(11,28)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>(15,22),(17,22),(16,23),(16,21)</t>
+          <t>(12,28),(10,28),(11,29)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>(17,22)</t>
+          <t>(12,28)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>(16,22),(18,22)</t>
+          <t>(13,28),(11,28),(12,29)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>(18,22)</t>
+          <t>(13,28)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>(17,22),(19,22)</t>
+          <t>(14,28),(12,28),(13,29)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>(19,22)</t>
+          <t>(14,28)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>(18,22),(20,22)</t>
+          <t>(15,28),(13,28),(14,29)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>(20,22)</t>
+          <t>(15,28)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>(19,22),(21,22)</t>
+          <t>(16,28),(14,28),(15,29)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>(21,22)</t>
+          <t>(16,28)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>(20,22),(22,22)</t>
+          <t>(17,28),(15,28),(16,29)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>(22,22)</t>
+          <t>(17,28)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>(21,22),(23,22)</t>
+          <t>(18,28),(16,28),(17,29)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>(23,22)</t>
+          <t>(18,28)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>(22,22),(24,22)</t>
+          <t>(19,28),(17,28),(18,29)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>(24,22)</t>
+          <t>(19,28)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>(23,22),(25,22)</t>
+          <t>(20,28),(18,28),(19,29)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>(1,23)</t>
+          <t>(20,28)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>(2,23),(1,22),(1,24)</t>
+          <t>(21,28),(19,28),(20,29)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>(2,23)</t>
+          <t>(21,28)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>(1,23),(2,22),(2,24)</t>
+          <t>(22,28),(20,28),(21,29)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>(1,24)</t>
+          <t>(22,28)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>(2,24),(1,23),(1,25)</t>
+          <t>(22,29),(21,28),(23,28)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>(2,24)</t>
+          <t>(25,28)</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>(1,24),(2,23),(2,25)</t>
+          <t>(26,28),(25,29),(24,28)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>(1,25)</t>
+          <t>(26,28)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>(2,25),(1,24),(1,26)</t>
+          <t>(27,28),(25,28),(26,29)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>(2,25)</t>
+          <t>(27,28)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>(1,25),(3,25),(2,24),(2,26)</t>
+          <t>(28,28),(26,28),(27,29)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>(3,25)</t>
+          <t>(28,28)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>(2,25),(4,25),(3,26)</t>
+          <t>(29,28),(27,28),(28,29)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>(4,25)</t>
+          <t>(29,28)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>(3,25),(5,25),(4,26)</t>
+          <t>(30,28),(28,28),(29,29)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>(5,25)</t>
+          <t>(30,28)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>(4,25),(6,25),(5,26)</t>
+          <t>(29,28),(30,29),(31,28)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>(6,25)</t>
+          <t>(33,28)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>(5,25),(7,25),(6,26)</t>
+          <t>(34,28),(33,29),(32,28)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>(7,25)</t>
+          <t>(34,28)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(6,25),(8,25),(7,26)</t>
+          <t>(35,28),(33,28),(34,29)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>(8,25)</t>
+          <t>(35,28)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>(7,25),(9,25),(8,26)</t>
+          <t>(36,28),(34,28),(35,29)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>(9,25)</t>
+          <t>(36,28)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>(8,25),(10,25),(9,26)</t>
+          <t>(37,28),(35,28),(36,29)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>(10,25)</t>
+          <t>(37,28)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>(9,25),(11,25),(10,26)</t>
+          <t>(38,28),(36,28),(37,29),(37,27)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>(11,25)</t>
+          <t>(38,28)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>(10,25),(12,25),(11,26)</t>
+          <t>(38,29),(37,28),(38,27)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>(12,25)</t>
+          <t>(31,28)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>(11,25),(13,25),(12,26)</t>
+          <t>(30,28),(31,29),(32,28)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>(13,25)</t>
+          <t>(32,28)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>(12,25),(14,25),(13,26)</t>
+          <t>(32,29),(31,28),(33,28)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>(14,25)</t>
+          <t>(9,16)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>(13,25),(15,25),(14,26)</t>
+          <t>(10,16),(9,15),(9,17)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>(15,25)</t>
+          <t>(10,16)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>(14,25),(16,25),(15,26),(15,24)</t>
+          <t>(9,16),(11,16),(10,15),(10,17)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>(16,25)</t>
+          <t>(11,16)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>(15,25),(17,25),(16,26),(16,24)</t>
+          <t>(10,16),(12,16),(11,15)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>(17,25)</t>
+          <t>(12,16)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>(16,25),(18,25),(17,26)</t>
+          <t>(11,16),(13,16),(12,15)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>(18,25)</t>
+          <t>(13,16)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>(17,25),(19,25),(18,26)</t>
+          <t>(13,16),(12,16),(14,16),(13,15)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>(19,25)</t>
+          <t>(14,16)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>(18,25),(20,25),(19,26)</t>
+          <t>(14,16),(13,16),(15,16),(14,15)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>(20,25)</t>
+          <t>(15,16)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>(19,25),(21,25),(20,26)</t>
+          <t>(15,16),(14,16),(16,16),(15,15)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>(21,25)</t>
+          <t>(16,16)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>(20,25),(22,25),(21,26)</t>
+          <t>(16,16),(15,16),(17,16),(16,15)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>(22,25)</t>
+          <t>(17,16)</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>(21,25),(23,25),(22,26)</t>
+          <t>(17,16),(16,16),(18,16),(17,15)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>(23,25)</t>
+          <t>(18,16)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>(22,25),(24,25),(23,26)</t>
+          <t>(18,16),(17,16),(19,16),(18,15)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>(24,25)</t>
+          <t>(19,16)</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>(23,25),(24,26),(24,25),(25,25)</t>
+          <t>(19,16),(18,16),(20,16),(19,15)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>(1,26)</t>
+          <t>(21,16)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>(2,26),(1,25)</t>
+          <t>(21,16),(20,16),(22,16),(21,15)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>(2,26)</t>
+          <t>(22,16)</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>(1,26),(3,26),(2,25)</t>
+          <t>(22,16),(21,16),(23,16),(22,15)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>(3,26)</t>
+          <t>(25,16)</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>(2,26),(4,26),(3,25)</t>
+          <t>(25,16),(26,16),(24,16),(25,15)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>(4,26)</t>
+          <t>(26,16)</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>(3,26),(5,26),(4,25)</t>
+          <t>(26,16),(25,16),(27,16),(26,15)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>(5,26)</t>
+          <t>(28,16)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>(4,26),(6,26),(5,25)</t>
+          <t>(27,16),(29,16),(28,15)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>(6,26)</t>
+          <t>(29,16)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>(5,26),(7,26),(6,25)</t>
+          <t>(29,16),(28,16),(30,16),(29,15)</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>(7,26)</t>
+          <t>(30,16)</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>(6,26),(8,26),(7,25)</t>
+          <t>(29,16),(31,16),(30,15)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>(8,26)</t>
+          <t>(31,16)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>(7,26),(9,26),(8,25)</t>
+          <t>(30,16),(32,16),(31,15)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>(9,26)</t>
+          <t>(32,16)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>(8,26),(10,26),(9,25)</t>
+          <t>(31,16),(33,16),(32,15)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>(10,26)</t>
+          <t>(33,16)</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>(9,26),(11,26),(10,25)</t>
+          <t>(32,16),(34,16),(33,15)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>(11,26)</t>
+          <t>(34,16)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>(10,26),(12,26),(11,25)</t>
+          <t>(33,16),(35,16),(34,15)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>(12,26)</t>
+          <t>(35,16)</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>(11,26),(13,26),(12,25)</t>
+          <t>(34,16),(36,16),(35,15)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>(13,26)</t>
+          <t>(36,16)</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>(12,26),(14,26),(13,25)</t>
+          <t>(35,16),(37,16),(36,15)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>(14,26)</t>
+          <t>(37,16)</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>(13,26),(15,26),(14,25)</t>
+          <t>(36,16),(38,16),(37,17),(37,15)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>(15,26)</t>
+          <t>(38,16)</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>(14,26),(16,26),(15,25)</t>
+          <t>(37,16),(38,15),(38,17)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>(16,26)</t>
+          <t>(9,15)</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>(15,26),(17,26),(16,25)</t>
+          <t>(9,16),(10,15)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>(17,26)</t>
+          <t>(10,15)</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>(16,26),(18,26),(17,25)</t>
+          <t>(9,15),(11,15),(10,16)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>(18,26)</t>
+          <t>(11,15)</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>(17,26),(19,26),(18,25)</t>
+          <t>(10,15),(12,15),(11,16)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>(19,26)</t>
+          <t>(12,15)</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>(18,26),(20,26),(19,25)</t>
+          <t>(11,15),(13,15),(12,16)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>(20,26)</t>
+          <t>(13,15)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>(19,26),(21,26),(20,25)</t>
+          <t>(12,15),(14,15),(13,16)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>(21,26)</t>
+          <t>(14,15)</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>(20,26),(22,26),(21,25)</t>
+          <t>(13,15),(15,15),(14,16)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>(22,26)</t>
+          <t>(15,15)</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>(21,26),(23,26),(22,25)</t>
+          <t>(14,15),(15,16),(16,15)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>(23,26)</t>
+          <t>(17,15)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>(22,26),(24,26),(23,25)</t>
+          <t>(18,15),(17,16),(16,15)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>(24,26)</t>
+          <t>(19,15)</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>(23,26),(24,25),(25,26)</t>
+          <t>(18,15),(20,15),(19,16)</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>(15,24)</t>
+          <t>(18,15)</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>(15,25),(15,23),(16,24)</t>
+          <t>(17,15),(19,15),(18,16)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>(16,24)</t>
+          <t>(21,15)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>(16,25),(16,23),(15,24)</t>
+          <t>(20,15),(22,15),(21,16)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>(15,23)</t>
+          <t>(22,15)</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>(15,24),(15,22),(16,23)</t>
+          <t>(21,15),(23,15),(22,16)</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>(16,23)</t>
+          <t>(25,15)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>(16,24),(16,22),(15,23)</t>
+          <t>(24,15),(26,15),(25,16)</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>(15,21)</t>
+          <t>(26,15)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>(15,22),(15,20),(16,21)</t>
+          <t>(26,16),(25,15),(27,15)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>(16,21)</t>
+          <t>(28,15)</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>(16,22),(16,20),(15,21)</t>
+          <t>(27,15),(29,15),(28,16)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>(15,20)</t>
+          <t>(29,15)</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>(15,21),(15,19),(16,20)</t>
+          <t>(28,15),(30,15),(29,16)</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>(16,20)</t>
+          <t>(30,15)</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>(16,21),(16,19),(15,20)</t>
+          <t>(29,15),(31,15),(30,16)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>(15,18)</t>
+          <t>(31,15)</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>(15,19),(15,17),(16,18)</t>
+          <t>(30,15),(32,15),(31,16)</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>(16,18)</t>
+          <t>(32,15)</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(16,19),(16,17),(15,18)</t>
+          <t>(31,15),(33,15),(32,16)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>(15,17)</t>
+          <t>(33,15)</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>(15,18),(15,16),(16,17)</t>
+          <t>(32,15),(34,15),(33,16)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>(16,17)</t>
+          <t>(34,15)</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>(16,18),(16,16),(15,17)</t>
+          <t>(33,15),(35,15),(34,16)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>(15,15)</t>
+          <t>(35,15)</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>(15,16),(15,14),(16,15)</t>
+          <t>(34,15),(36,15),(35,16)</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>(16,15)</t>
+          <t>(36,15)</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>(16,16),(16,14),(15,15)</t>
+          <t>(35,15),(36,16),(36,14),(37,15)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>(15,14)</t>
+          <t>(38,15)</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>(15,15),(15,13),(16,14)</t>
+          <t>(38,16),(39,15),(38,14),(37,15)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>(16,14)</t>
+          <t>(16,15)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>(16,15),(16,13),(15,14)</t>
+          <t>(15,15),(17,15),(16,16)</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>(29,22)</t>
+          <t>(37,27)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>(29,23),(29,21),(30,22),(28,22)</t>
+          <t>(37,28),(37,26),(38,27)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>(30,22)</t>
+          <t>(38,27)</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>(30,23),(30,21),(29,22)</t>
+          <t>(38,26),(38,28),(37,27)</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>(29,26)</t>
+          <t>(37,26)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>(28,26),(30,26),(29,25)</t>
+          <t>(37,27),(37,25),(38,26)</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>(29,25)</t>
+          <t>(38,26)</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>(29,26),(29,24),(28,25),(30,25)</t>
+          <t>(38,25),(38,27),(37,26)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>(29,24)</t>
+          <t>(37,25)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>(29,25),(30,24),(29,23)</t>
+          <t>(37,26),(37,24),(38,25),(36,25)</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>(29,23)</t>
+          <t>(38,25)</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(29,23),(29,22),(30,23),(29,24)</t>
+          <t>(38,24),(38,26),(37,25)</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>(29,21)</t>
+          <t>(37,24)</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>(29,22),(29,20),(30,21)</t>
+          <t>(37,25),(37,23),(38,24)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>(29,20)</t>
+          <t>(38,24)</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>(29,21),(29,19),(30,20)</t>
+          <t>(38,23),(38,25),(37,24)</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>(29,19)</t>
+          <t>(37,23)</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>(29,20),(29,18),(30,19),(28,19)</t>
+          <t>(37,24),(37,22),(38,23)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>(29,18)</t>
+          <t>(38,23)</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>(29,19),(29,17),(30,18)</t>
+          <t>(38,22),(38,24),(37,23)</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>(29,17)</t>
+          <t>(37,22)</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>(29,18),(29,16),(30,17)</t>
+          <t>(37,23),(37,21),(38,22),(36,22)</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>(29,16)</t>
+          <t>(38,22)</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>(29,17),(29,15),(30,16),(28,16)</t>
+          <t>(38,21),(38,23),(37,22)</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>(29,15)</t>
+          <t>(37,21)</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>(29,16),(29,14),(30,15)</t>
+          <t>(37,22),(37,20),(38,21)</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>(29,14)</t>
+          <t>(38,21)</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>(29,15),(29,13),(30,14)</t>
+          <t>(38,20),(38,22),(37,21)</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>(29,13)</t>
+          <t>(37,20)</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>(29,14),(29,12),(28,13),(30,13)</t>
+          <t>(37,21),(37,19),(38,20)</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>(30,26)</t>
+          <t>(38,20)</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>(29,26),(30,25)</t>
+          <t>(38,19),(38,21),(37,20)</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>(30,25)</t>
+          <t>(37,19)</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>(30,26),(30,24),(29,25)</t>
+          <t>(37,20),(37,18),(38,19),(36,19)</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>(30,24)</t>
+          <t>(38,19)</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>(30,25),(30,23),(29,24)</t>
+          <t>(38,18),(38,20),(37,19)</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>(30,23)</t>
+          <t>(37,18)</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(30,24),(30,22),(29,23)</t>
+          <t>(37,19),(37,17),(38,18)</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>(30,21)</t>
+          <t>(38,18)</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(30,22),(30,20),(29,21)</t>
+          <t>(38,17),(38,19),(37,18)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>(30,20)</t>
+          <t>(37,17)</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>(30,21),(30,19),(29,20)</t>
+          <t>(37,18),(37,16),(38,17)</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>(30,19)</t>
+          <t>(38,17)</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>(30,20),(30,18),(29,19)</t>
+          <t>(38,16),(38,18),(37,17)</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>(30,18)</t>
+          <t>(9,27)</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>(30,19),(30,17),(29,18)</t>
+          <t>(9,28),(9,26),(10,27)</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>(30,17)</t>
+          <t>(10,27)</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>(30,18),(30,16),(29,17)</t>
+          <t>(10,26),(10,28),(9,27)</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>(30,16)</t>
+          <t>(9,26)</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>(30,17),(30,15),(29,16)</t>
+          <t>(9,27),(9,25),(10,26)</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>(30,15)</t>
+          <t>(10,26)</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>(30,16),(30,14),(29,15)</t>
+          <t>(10,25),(10,27),(9,26)</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>(30,14)</t>
+          <t>(9,25)</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>(30,15),(30,13),(29,14)</t>
+          <t>(9,26),(9,24),(10,25)</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>(30,13)</t>
+          <t>(10,25)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>(30,14),(30,12),(29,13)</t>
+          <t>(10,24),(10,26),(9,25),(11,25)</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>(31,12)</t>
+          <t>(9,24)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>(30,12),(31,12),(31,11)</t>
+          <t>(9,25),(9,23),(10,24)</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>(29,12)</t>
+          <t>(10,24)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>(29,13),(29,11),(28,12),(30,12)</t>
+          <t>(10,23),(10,25),(9,24)</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>(30,12)</t>
+          <t>(9,23)</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>(30,13),(30,11),(31,12),(29,12)</t>
+          <t>(9,23),(9,22),(9,24),(10,23)</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>(30,11)</t>
+          <t>(10,23)</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>(30,12),(30,10)</t>
+          <t>(10,22),(10,24),(9,23)</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>(30,10)</t>
+          <t>(9,22)</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>(30,11),(30,9)</t>
+          <t>(9,22),(9,23),(9,21),(10,22)</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>(30,9)</t>
+          <t>(10,22)</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>(30,10),(30,8),(29,9),(31,9)</t>
+          <t>(10,21),(10,23),(9,22),(11,22)</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>(30,8)</t>
+          <t>(9,21)</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>(30,9),(29,8),(31,8),(30,7)</t>
+          <t>(9,22),(9,20),(10,21)</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>(30,6)</t>
+          <t>(10,21)</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>(30,6),(29,6),(31,6)</t>
+          <t>(10,21),(10,20),(10,22),(9,21)</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>(29,6)</t>
+          <t>(9,20)</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>(28,6),(29,6),(30,6)</t>
+          <t>(9,21),(9,19),(10,20)</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>(28,6)</t>
+          <t>(10,20)</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>(29,6),(27,6)</t>
+          <t>(10,20),(10,21),(10,19),(9,20)</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>(27,6)</t>
+          <t>(9,19)</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>(26,6),(28,6)</t>
+          <t>(9,20),(9,18),(10,19)</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>(26,6)</t>
+          <t>(10,19)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(27,6),(25,6)</t>
+          <t>(10,18),(10,19),(10,20),(9,19),(11,19)</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>(26,7)</t>
+          <t>(10,18)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(27,7),(25,7)</t>
+          <t>(10,17),(10,19),(9,18)</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>(27,7)</t>
+          <t>(10,17)</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>(26,7),(28,7)</t>
+          <t>(10,16),(10,18),(9,17)</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>(28,7)</t>
+          <t>(9,17)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>(27,7),(29,7)</t>
+          <t>(9,18),(9,16),(10,17)</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>(29,7)</t>
+          <t>(9,18)</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>(28,7),(30,7)</t>
+          <t>(9,19),(9,17),(10,18)</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>(29,8)</t>
+          <t>(11,25)</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>(28,8),(30,8),(29,9)</t>
+          <t>(10,25),(12,25)</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>(28,8)</t>
+          <t>(11,22)</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>(27,8),(29,8)</t>
+          <t>(10,22),(12,22)</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>(27,8)</t>
+          <t>(11,19)</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>(26,8),(28,8)</t>
+          <t>(12,19),(10,19)</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>(26,8)</t>
+          <t>(12,19)</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>(27,8),(25,8)</t>
+          <t>(13,19),(11,19)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>(26,9)</t>
+          <t>(13,19)</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>(27,9),(25,9)</t>
+          <t>(14,19),(12,19)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>(27,9)</t>
+          <t>(14,19)</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>(26,9),(28,9)</t>
+          <t>(15,19),(13,19)</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>(28,9)</t>
+          <t>(15,19)</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>(27,9),(29,9),(28,10)</t>
+          <t>(16,19),(14,19)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>(29,9)</t>
+          <t>(16,19)</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>(28,9),(30,9),(29,10),(29,8)</t>
+          <t>(17,19),(15,19)</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>(31,11)</t>
+          <t>(17,19)</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>(31,11),(31,10),(31,12)</t>
+          <t>(18,19),(16,19)</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>(31,10)</t>
+          <t>(18,19)</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>(31,11),(31,9)</t>
+          <t>(19,19),(17,19)</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>(31,9)</t>
+          <t>(19,19)</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>(31,10),(31,8),(30,9)</t>
+          <t>(20,19),(18,19)</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>(31,8)</t>
+          <t>(20,19)</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>(31,9),(31,7),(30,8)</t>
+          <t>(21,19),(19,19)</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>(31,7)</t>
+          <t>(21,19)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>(31,8),(31,6),(30,7)</t>
+          <t>(22,19),(20,19)</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>(31,6)</t>
+          <t>(22,19)</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>(31,7),(30,6)</t>
+          <t>(23,19),(21,19)</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>(28,12)</t>
+          <t>(25,19)</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(28,13),(28,11),(27,12),(29,12)</t>
+          <t>(26,19),(24,19)</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>(27,12)</t>
+          <t>(26,19)</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>(26,12),(28,12),(27,13)</t>
+          <t>(27,19),(25,19)</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>(26,12)</t>
+          <t>(27,19)</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>(25,12),(27,12),(26,13)</t>
+          <t>(28,19),(26,19)</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>(25,13)</t>
+          <t>(28,19)</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>(24,13),(26,13),(25,12)</t>
+          <t>(29,19),(27,19)</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>(26,13)</t>
+          <t>(29,19)</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>(25,13),(27,13),(26,12)</t>
+          <t>(29,19),(28,19),(30,19)</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>(27,13)</t>
+          <t>(30,19)</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>(26,13),(28,13),(27,12)</t>
+          <t>(30,19),(29,19),(31,19)</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>(28,13)</t>
+          <t>(31,19)</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>(28,12),(27,13),(29,13)</t>
+          <t>(32,19),(30,19)</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>(29,11)</t>
+          <t>(32,19)</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>(29,12),(29,10)</t>
+          <t>(33,19),(31,19)</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>(28,11)</t>
+          <t>(33,19)</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>(28,12),(28,10)</t>
+          <t>(34,19),(32,19)</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>(28,10)</t>
+          <t>(34,19)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>(28,11),(28,9)</t>
+          <t>(35,19),(33,19)</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>(29,10)</t>
+          <t>(35,19)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>(29,11),(29,9)</t>
+          <t>(36,19),(34,19)</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>(25,26)</t>
+          <t>(36,19)</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>(24,26),(26,26),(25,25)</t>
+          <t>(37,19),(35,19)</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>(26,26)</t>
+          <t>(12,22)</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>(25,26),(27,26),(26,25)</t>
+          <t>(11,22),(13,22)</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>(27,26)</t>
+          <t>(13,22)</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>(26,26),(28,26),(27,25)</t>
+          <t>(12,22),(14,22)</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>(28,26)</t>
+          <t>(14,22)</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>(27,26),(29,26),(28,25)</t>
+          <t>(13,22),(15,22)</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>(25,25)</t>
+          <t>(15,22)</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>(25,25),(24,25),(26,25),(25,26)</t>
+          <t>(14,22),(16,22)</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>(26,25)</t>
+          <t>(16,22)</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>(25,25),(27,25),(26,26)</t>
+          <t>(15,22),(17,22)</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>(27,25)</t>
+          <t>(17,22)</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>(26,25),(28,25),(27,26)</t>
+          <t>(16,22),(18,22)</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>(28,25)</t>
+          <t>(18,22)</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>(27,25),(29,25),(28,26)</t>
+          <t>(17,22),(19,22)</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>(15,9)</t>
+          <t>(19,22)</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>(15,10),(15,8),(16,9)</t>
+          <t>(18,22),(20,22)</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>(15,8)</t>
+          <t>(20,22)</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>(15,9),(15,7),(16,8)</t>
+          <t>(19,22),(21,22)</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>(15,7)</t>
+          <t>(21,22)</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(15,8),(15,6),(16,7)</t>
+          <t>(20,22),(22,22)</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>(15,6)</t>
+          <t>(22,22)</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>(15,7),(15,5),(16,6)</t>
+          <t>(21,22),(23,22)</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>(15,5)</t>
+          <t>(25,22)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>(15,6),(15,4),(16,5)</t>
+          <t>(24,22),(26,22)</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>(15,4)</t>
+          <t>(26,22)</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>(15,5),(15,3),(16,4)</t>
+          <t>(25,22),(27,22)</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>(15,3)</t>
+          <t>(27,22)</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>(15,4),(15,2),(16,3)</t>
+          <t>(26,22),(28,22)</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>(8,9)</t>
+          <t>(28,22)</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>(8,10),(8,8),(9,9)</t>
+          <t>(27,22),(29,22)</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>(8,8)</t>
+          <t>(29,22)</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>(8,9),(8,7),(9,8)</t>
+          <t>(28,22),(30,22)</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>(8,7)</t>
+          <t>(30,22)</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>(8,8),(8,6),(9,7)</t>
+          <t>(29,22),(31,22)</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>(8,6)</t>
+          <t>(31,22)</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>(8,7),(8,5),(9,6)</t>
+          <t>(30,22),(32,22)</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>(8,5)</t>
+          <t>(32,22)</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>(8,6),(8,4),(9,5)</t>
+          <t>(31,22),(33,22)</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>(8,4)</t>
+          <t>(33,22)</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>(8,5),(8,3),(9,4)</t>
+          <t>(32,22),(34,22)</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>(8,3)</t>
+          <t>(34,22)</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>(8,4),(8,2),(9,3)</t>
+          <t>(33,22),(35,22)</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>(25,22)</t>
+          <t>(35,22)</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>(26,22),(24,22)</t>
+          <t>(34,22),(36,22)</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>(26,22)</t>
+          <t>(36,22)</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>(27,22),(25,22)</t>
+          <t>(35,22),(37,22)</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>(27,22)</t>
+          <t>(12,25)</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>(28,22),(26,22)</t>
+          <t>(11,25),(13,25)</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>(28,22)</t>
+          <t>(13,25)</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>(29,22),(27,22)</t>
+          <t>(12,25),(14,25)</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>(25,19)</t>
+          <t>(14,25)</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>(24,19),(26,19)</t>
+          <t>(13,25),(15,25)</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>(26,19)</t>
+          <t>(15,25)</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>(25,19),(27,19)</t>
+          <t>(14,25),(16,25)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>(27,19)</t>
+          <t>(16,25)</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>(26,19),(28,19)</t>
+          <t>(15,25),(17,25)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>(28,19)</t>
+          <t>(17,25)</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>(27,19),(29,19)</t>
+          <t>(16,25),(18,25)</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>(24,19)</t>
+          <t>(18,25)</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>(25,19),(23,19)</t>
+          <t>(17,25),(19,25)</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>(26,16)</t>
+          <t>(19,25)</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>(25,16),(27,16)</t>
+          <t>(18,25),(20,25)</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>(25,16)</t>
+          <t>(20,25)</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>(24,16),(26,16)</t>
+          <t>(19,25),(21,25)</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>(27,16)</t>
+          <t>(21,25)</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>(26,16),(28,16)</t>
+          <t>(20,25),(22,25)</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>(28,16)</t>
+          <t>(22,25)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>(27,16),(29,16)</t>
+          <t>(21,25),(23,25)</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>(22,9)</t>
+          <t>(25,25)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(22,8),(22,10),(23,9)</t>
+          <t>(24,25),(26,25)</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>(22,8)</t>
+          <t>(26,25)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>(22,7),(22,9),(23,8)</t>
+          <t>(25,25),(27,25)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>(22,7)</t>
+          <t>(27,25)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>(22,6),(22,8),(23,7)</t>
+          <t>(26,25),(28,25)</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>(22,6)</t>
+          <t>(28,25)</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>(22,5),(22,7),(23,6)</t>
+          <t>(27,25),(29,25)</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>(22,5)</t>
+          <t>(29,25)</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>(22,4),(22,6),(23,5)</t>
+          <t>(28,25),(30,25)</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>(22,4)</t>
+          <t>(30,25)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>(22,3),(22,5),(23,4)</t>
+          <t>(29,25),(31,25)</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>(22,3)</t>
+          <t>(31,25)</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>(22,2),(22,4),(23,3)</t>
+          <t>(30,25),(32,25)</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>(22,2)</t>
+          <t>(32,25)</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(22,1),(22,3),(23,2)</t>
+          <t>(31,25),(33,25)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>(22,1)</t>
+          <t>(33,25)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(22,2),(23,1),(22,0),(21,1)</t>
+          <t>(32,25),(34,25)</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>(23,1)</t>
+          <t>(34,25)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>(23,2),(22,1),(23,0)</t>
+          <t>(33,25),(35,25)</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>(23,2)</t>
+          <t>(35,25)</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>(23,3),(23,1),(22,2)</t>
+          <t>(34,25),(36,25)</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>(23,3)</t>
+          <t>(36,25)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>(23,4),(23,2),(22,3)</t>
+          <t>(35,25),(37,25)</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>(23,4)</t>
+          <t>(39,15)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>(23,5),(23,3),(22,4)</t>
+          <t>(38,15),(39,14)</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>(23,5)</t>
+          <t>(39,14)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>(23,6),(23,4),(22,5)</t>
+          <t>(39,15),(39,13)</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>(23,6)</t>
+          <t>(39,13)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>(23,7),(23,5),(24,6),(22,6)</t>
+          <t>(39,14),(39,12)</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>(23,7)</t>
+          <t>(39,12)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>(23,8),(23,6),(22,7),(24,7)</t>
+          <t>(39,13),(39,11),(38,12)</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>(23,8)</t>
+          <t>(39,11)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>(23,9),(23,7),(24,8),(22,8)</t>
+          <t>(39,12),(39,10),(38,11)</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>(23,9)</t>
+          <t>(39,10)</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>(23,10),(23,8),(24,9),(22,9)</t>
+          <t>(39,11),(39,9),(38,10)</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>(23,10)</t>
+          <t>(39,9)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>(22,10),(23,11),(23,9)</t>
+          <t>(39,10),(38,9)</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>(23,11)</t>
+          <t>(38,9)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>(22,11),(23,10)</t>
+          <t>(39,9),(37,9)</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>(21,11)</t>
+          <t>(37,9)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>(20,11),(22,11),(21,10)</t>
+          <t>(38,9),(36,9)</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>(22,11)</t>
+          <t>(36,9)</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>(21,11),(23,11),(22,10)</t>
+          <t>(37,9),(35,9)</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>(22,10)</t>
+          <t>(35,9)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>(21,10),(23,10),(22,11),(22,9)</t>
+          <t>(36,9),(34,9)</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>(21,10)</t>
+          <t>(34,9)</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>(20,10),(22,10),(21,11)</t>
+          <t>(35,9),(33,9)</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>(8,0)</t>
+          <t>(33,9)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>(8,1),(9,0)</t>
+          <t>(34,9),(32,9)</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>(9,0)</t>
+          <t>(32,9)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>(9,1),(8,0),(10,0)</t>
+          <t>(33,9),(31,9)</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>(10,0)</t>
+          <t>(38,14)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>(10,1),(9,0),(11,0)</t>
+          <t>(38,15),(38,13)</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>(13,0)</t>
+          <t>(38,13)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>(14,0),(13,1),(12,0)</t>
+          <t>(38,14),(38,12)</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>(14,0)</t>
+          <t>(38,12)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>(13,0),(15,0),(14,1)</t>
+          <t>(38,13),(38,11),(39,12),(37,12)</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>(15,0)</t>
+          <t>(38,11)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>(16,0),(14,0),(15,1)</t>
+          <t>(38,12),(38,10),(39,11),(37,11)</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>(16,0)</t>
+          <t>(38,10)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>(17,0),(15,0),(16,1)</t>
+          <t>(38,11),(37,10),(39,10)</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>(17,0)</t>
+          <t>(37,10)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>(16,0),(18,0),(17,1)</t>
+          <t>(38,10),(36,10)</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>(18,0)</t>
+          <t>(36,10)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>(17,0),(19,0),(18,1)</t>
+          <t>(37,10),(35,10)</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>(19,0)</t>
+          <t>(35,10)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>(18,0),(20,0),(19,1)</t>
+          <t>(36,10),(34,10)</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>(20,0)</t>
+          <t>(34,10)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>(21,0),(19,0),(20,1)</t>
+          <t>(35,10),(33,10)</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>(21,0)</t>
+          <t>(33,10)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>(20,0),(22,0),(21,1)</t>
+          <t>(34,10),(32,10)</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>(22,0)</t>
+          <t>(32,10)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>(23,0),(21,0),(22,1)</t>
+          <t>(33,10),(31,10)</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>(23,0)</t>
+          <t>(37,14)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>(22,0),(23,1)</t>
+          <t>(37,13),(37,15)</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>(24,9)</t>
+          <t>(37,13)</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>(23,9),(25,9)</t>
+          <t>(37,12),(37,14)</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>(24,8)</t>
+          <t>(37,12)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>(23,8),(25,8)</t>
+          <t>(37,11),(37,13),(36,12),(38,12)</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>(24,6)</t>
+          <t>(37,11)</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>(24,6),(25,6),(23,6)</t>
+          <t>(36,11),(37,12),(38,11)</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>(25,8)</t>
+          <t>(36,11)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>(24,8),(26,8)</t>
+          <t>(35,11),(37,11)</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>(25,7)</t>
+          <t>(35,11)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>(26,7),(24,7)</t>
+          <t>(34,11),(36,11)</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>(11,1)</t>
+          <t>(34,11)</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>(10,1),(12,1),(11,0)</t>
+          <t>(33,11),(35,11)</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>(14,1)</t>
+          <t>(33,11)</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>(13,1),(15,1),(14,0)</t>
+          <t>(32,11),(34,11)</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>(12,0)</t>
+          <t>(32,11)</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>(12,1),(13,0),(11,0)</t>
+          <t>(31,11),(33,11)</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>(18,1)</t>
+          <t>(32,12)</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>(17,1),(19,1),(18,0)</t>
+          <t>(33,12),(31,12)</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>(21,1)</t>
+          <t>(33,12)</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>(20,1),(22,1),(21,0)</t>
+          <t>(34,12),(32,12)</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>(25,9)</t>
+          <t>(34,12)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>(24,9),(26,9)</t>
+          <t>(35,12),(33,12)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>(11,0)</t>
+          <t>(35,12)</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>(11,1),(10,0),(12,0)</t>
+          <t>(36,12),(34,12)</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>(30,7)</t>
+          <t>(36,12)</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>(31,7),(29,7),(30,8)</t>
+          <t>(36,13),(35,12),(37,12)</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>(24,7)</t>
+          <t>(36,13)</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>(23,7),(25,7)</t>
+          <t>(36,14),(36,12)</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>(13,12)</t>
+          <t>(36,14)</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>(12,12),(14,12)</t>
+          <t>(36,15),(36,13)</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>(9,12)</t>
+          <t>(37,15)</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>(8,12),(10,12)</t>
+          <t>(37,16),(37,14),(36,15),(38,15)</t>
         </is>
       </c>
     </row>
